--- a/rrd/AppData/ContactConfigData.xlsx
+++ b/rrd/AppData/ContactConfigData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1859F3C4-12E0-4AA7-93F2-3F16F60E671D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441619B-5B1C-4E39-B8D3-A6CCDEE028F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t>RRD Mirketa</t>
+    <t>Security User</t>
   </si>
 </sst>
 </file>
